--- a/config_5.11/shoping_config_cjj.xlsx
+++ b/config_5.11/shoping_config_cjj.xlsx
@@ -6605,8 +6605,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6640,9 +6640,99 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6656,51 +6746,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6716,46 +6770,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6766,21 +6781,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6870,7 +6870,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6882,13 +6888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6900,7 +6900,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6912,7 +6936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6924,25 +6948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6960,13 +6972,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6984,43 +7008,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7063,6 +7063,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -7084,32 +7123,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7125,21 +7138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -7151,9 +7149,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7165,10 +7165,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7177,133 +7177,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10020,7 +10020,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E631" sqref="E631"/>
+      <selection pane="bottomRight" activeCell="AB626" sqref="AB626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -49584,7 +49584,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA619" s="29">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AB619"/>
       <c r="AC619"/>
@@ -50546,7 +50546,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA620" s="29">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AB620"/>
       <c r="AC620"/>
@@ -51508,7 +51508,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA621" s="29">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="AB621"/>
       <c r="AC621"/>
@@ -52470,7 +52470,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA622" s="29">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AB622"/>
       <c r="AC622"/>
@@ -53432,7 +53432,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA623" s="29">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AB623"/>
       <c r="AC623"/>
@@ -54394,7 +54394,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA624" s="29">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="AB624"/>
       <c r="AC624"/>
@@ -55356,7 +55356,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA625" s="29">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AB625"/>
       <c r="AC625"/>
@@ -56318,7 +56318,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA626" s="29">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AB626"/>
       <c r="AC626"/>
@@ -57280,7 +57280,7 @@
         <v>1621267199</v>
       </c>
       <c r="AA627" s="29">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AB627"/>
       <c r="AC627"/>
